--- a/data_output/prism_passive/all_passive_out_norm_licht_fas_elong_GM_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_licht_fas_elong_GM_common_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.2118506284142774</v>
+        <v>0.21185062919294695</v>
       </c>
       <c r="C2">
-        <v>1.4043030135311527</v>
+        <v>1.4043030135138987</v>
       </c>
       <c r="D2">
-        <v>1.8663572001721129</v>
+        <v>1.8663571968820416</v>
       </c>
       <c r="E2">
-        <v>3.4413152914494787</v>
+        <v>3.4413152894541228</v>
       </c>
       <c r="F2">
-        <v>1.0774190467146361</v>
+        <v>1.0774190430947357</v>
       </c>
       <c r="G2">
-        <v>0.25722548744282364</v>
+        <v>0.25722548664482181</v>
       </c>
       <c r="H2">
-        <v>0.77668636592453155</v>
+        <v>0.77668636449122097</v>
       </c>
       <c r="I2">
-        <v>1.6441097576207178</v>
+        <v>1.6441097573524193</v>
       </c>
       <c r="J2">
-        <v>2.2007954179223073</v>
+        <v>2.2007954156391807</v>
       </c>
       <c r="K2">
-        <v>0.61058952862770388</v>
+        <v>0.61058952592125704</v>
       </c>
       <c r="L2">
-        <v>0.53328106284279786</v>
+        <v>0.53328106295861522</v>
       </c>
       <c r="M2">
-        <v>-1.4112122979301036</v>
+        <v>-1.4112122975156391</v>
       </c>
       <c r="N2">
-        <v>1.8920148446639684</v>
+        <v>1.8920148444999729</v>
       </c>
       <c r="O2">
-        <v>1.3206324593443686</v>
+        <v>1.3206324552933866</v>
       </c>
       <c r="P2">
-        <v>2.3651951595540637</v>
+        <v>2.3651951596117162</v>
       </c>
       <c r="Q2">
-        <v>-0.21637104989149758</v>
+        <v>-0.21637105111536956</v>
       </c>
       <c r="R2">
-        <v>-1.13480071233964</v>
+        <v>-1.1348007166966199</v>
       </c>
       <c r="S2">
-        <v>3.8041650279477186</v>
+        <v>3.8041650303475825</v>
       </c>
       <c r="T2">
-        <v>3.2156647785714982</v>
+        <v>3.2156647812487926</v>
       </c>
       <c r="U2">
-        <v>-0.42477847915491873</v>
+        <v>-0.42477848424663528</v>
       </c>
       <c r="V2">
-        <v>0.64817825599167778</v>
+        <v>0.64817825259306017</v>
       </c>
       <c r="W2">
-        <v>-1.8476881531394242</v>
+        <v>-1.8476881548917097</v>
       </c>
       <c r="X2">
-        <v>-0.16495026668458687</v>
+        <v>-0.16495026726592882</v>
       </c>
       <c r="Y2">
-        <v>3.1673973446885073</v>
+        <v>3.1673973407183182</v>
       </c>
       <c r="Z2">
-        <v>2.0420581144898224</v>
+        <v>2.042058109454032</v>
       </c>
       <c r="AA2">
-        <v>2.2108985031513866</v>
+        <v>2.2108984995815382</v>
       </c>
       <c r="AB2">
-        <v>1.6882643778813065</v>
+        <v>1.6882643715921071</v>
       </c>
       <c r="AC2">
-        <v>-0.3166389255950538</v>
+        <v>-0.31663892864535936</v>
       </c>
       <c r="AD2">
-        <v>3.314947139870196</v>
+        <v>3.314947132675381</v>
       </c>
       <c r="AE2">
-        <v>0.91442762218837559</v>
+        <v>0.9144276187663376</v>
       </c>
       <c r="AF2">
-        <v>1.8469311314169174</v>
+        <v>1.8469311282557712</v>
       </c>
       <c r="AG2">
-        <v>1.6426946415044916</v>
+        <v>1.6426946383841492</v>
       </c>
       <c r="AH2">
-        <v>2.038471270611327</v>
+        <v>2.0384712675486027</v>
       </c>
       <c r="AI2">
-        <v>2.5669364103664427</v>
+        <v>2.5669364042634908</v>
       </c>
       <c r="AJ2">
-        <v>1.6192733455078741</v>
+        <v>1.6192733436044504</v>
       </c>
       <c r="AK2">
-        <v>1.8320981165135517</v>
+        <v>1.8320981138434878</v>
       </c>
       <c r="AL2">
-        <v>-1.0030361594835675</v>
+        <v>-1.0030361622413215</v>
       </c>
       <c r="AM2">
-        <v>1.6710835103207331</v>
+        <v>1.6710835076655888</v>
       </c>
       <c r="AN2">
-        <v>2.1852760394468924</v>
+        <v>2.185276034356348</v>
       </c>
       <c r="AO2">
-        <v>3.6506875056346582</v>
+        <v>3.6506875033392996</v>
       </c>
       <c r="AP2">
-        <v>2.4124764946424628</v>
+        <v>2.4124764899568008</v>
       </c>
       <c r="AQ2">
-        <v>-1.2061323547264278</v>
+        <v>-1.2061323573086691</v>
       </c>
       <c r="AR2">
-        <v>3.8625173649677644</v>
+        <v>3.8625173652951683</v>
       </c>
       <c r="AS2">
-        <v>2.7024957021023432</v>
+        <v>2.7024956976991543</v>
       </c>
       <c r="AT2">
-        <v>1.3765606482700357</v>
+        <v>1.3765606440212463</v>
       </c>
       <c r="AU2">
-        <v>2.0158572758648088</v>
+        <v>2.0158572700954465</v>
       </c>
       <c r="AV2">
-        <v>-0.12968686157238524</v>
+        <v>-0.12968686697229351</v>
       </c>
       <c r="AW2">
-        <v>0.62000386277096953</v>
+        <v>0.62000385836867378</v>
       </c>
       <c r="AX2">
-        <v>2.8191614849747064</v>
+        <v>2.819161479141151</v>
       </c>
       <c r="AY2">
-        <v>3.9291435793576341</v>
+        <v>3.9291435749347707</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.77301413593260349</v>
+        <v>0.77301413382990891</v>
       </c>
       <c r="C3">
-        <v>0.5582711098735651</v>
+        <v>0.55827110559360438</v>
       </c>
       <c r="D3">
-        <v>2.9546053034481248</v>
+        <v>2.9546052956682933</v>
       </c>
       <c r="E3">
-        <v>2.5246368476346186</v>
+        <v>2.5246368439466189</v>
       </c>
       <c r="F3">
-        <v>0.81544744801798208</v>
+        <v>0.81544744480551923</v>
       </c>
       <c r="G3">
-        <v>2.0934884523493196</v>
+        <v>2.0934884503623201</v>
       </c>
       <c r="H3">
-        <v>-0.90928394515695055</v>
+        <v>-0.90928394694650783</v>
       </c>
       <c r="I3">
-        <v>0.53027875091870802</v>
+        <v>0.53027874920548357</v>
       </c>
       <c r="J3">
-        <v>2.526347858015392</v>
+        <v>2.5263478569118689</v>
       </c>
       <c r="K3">
-        <v>4.6054644145926362</v>
+        <v>4.6054644147377077</v>
       </c>
       <c r="L3">
-        <v>2.426336385291731</v>
+        <v>2.4263363833403524</v>
       </c>
       <c r="M3">
-        <v>-1.4968146854700944E-2</v>
+        <v>-1.502686752129833E-2</v>
       </c>
       <c r="N3">
-        <v>1.2059266280276946</v>
+        <v>1.2059266251779492</v>
       </c>
       <c r="O3">
-        <v>-2.7654820288158941</v>
+        <v>-2.7654820335070363</v>
       </c>
       <c r="P3">
-        <v>2.0399571976619808</v>
+        <v>2.0399571912803331</v>
       </c>
       <c r="Q3">
-        <v>0.79104783247486865</v>
+        <v>0.79104783099499321</v>
       </c>
       <c r="R3">
-        <v>-0.38332645392850806</v>
+        <v>-0.38332645618870897</v>
       </c>
       <c r="S3">
-        <v>2.8582932970017385</v>
+        <v>2.858293295750562</v>
       </c>
       <c r="T3">
-        <v>3.0499124481692412</v>
+        <v>3.0499124451392157</v>
       </c>
       <c r="U3">
-        <v>1.7053201750922256</v>
+        <v>1.7053201719574276</v>
       </c>
       <c r="V3">
-        <v>1.7416213498799689</v>
+        <v>1.7416213480067124</v>
       </c>
       <c r="W3">
-        <v>-0.3826248997788102</v>
+        <v>-0.38262490213858169</v>
       </c>
       <c r="X3">
-        <v>-0.89323013270063611</v>
+        <v>-0.89323013530761208</v>
       </c>
       <c r="Y3">
-        <v>4.1429556151730598</v>
+        <v>4.1429556096851785</v>
       </c>
       <c r="Z3">
-        <v>2.4009924527049331</v>
+        <v>2.4009924472636182</v>
       </c>
       <c r="AA3">
-        <v>2.2455485895430018</v>
+        <v>2.2455485855717225</v>
       </c>
       <c r="AB3">
-        <v>2.0106159389974581</v>
+        <v>2.0106159335872795</v>
       </c>
       <c r="AC3">
-        <v>3.5073919670705633</v>
+        <v>3.5073919640573501</v>
       </c>
       <c r="AD3">
-        <v>3.4654895413797466</v>
+        <v>3.4654895370243537</v>
       </c>
       <c r="AE3">
-        <v>2.2333892265657629</v>
+        <v>2.2333892247572296</v>
       </c>
       <c r="AF3">
-        <v>1.8208755084806947</v>
+        <v>1.8208755046256802</v>
       </c>
       <c r="AG3">
-        <v>0.71858425618594779</v>
+        <v>0.71858425360057487</v>
       </c>
       <c r="AH3">
-        <v>0.28228045933610685</v>
+        <v>0.28228045647055111</v>
       </c>
       <c r="AI3">
-        <v>7.4320073117161902</v>
+        <v>7.4320073065602639</v>
       </c>
       <c r="AJ3">
-        <v>3.0735395673990729</v>
+        <v>3.0735395654962745</v>
       </c>
       <c r="AK3">
-        <v>2.1162410840598733</v>
+        <v>2.1162410793235065</v>
       </c>
       <c r="AL3">
-        <v>1.4064914700914704</v>
+        <v>1.4064914648189477</v>
       </c>
       <c r="AM3">
-        <v>1.2307636554513322</v>
+        <v>1.2307636500082086</v>
       </c>
       <c r="AN3">
-        <v>-2.3366969505774478</v>
+        <v>-2.3366969529623156</v>
       </c>
       <c r="AO3">
-        <v>3.0939365767010027</v>
+        <v>3.0939365672317964</v>
       </c>
       <c r="AP3">
-        <v>0.21909993254209986</v>
+        <v>0.21909992919030419</v>
       </c>
       <c r="AQ3">
-        <v>1.5423758054089765</v>
+        <v>1.5423758006445469</v>
       </c>
       <c r="AR3">
-        <v>5.1190300312014028</v>
+        <v>5.1190300306437884</v>
       </c>
       <c r="AS3">
-        <v>2.357766325954592</v>
+        <v>2.3577663230895856</v>
       </c>
       <c r="AT3">
-        <v>2.0111834040300636</v>
+        <v>2.0111833972302953</v>
       </c>
       <c r="AU3">
-        <v>1.2034441375667366</v>
+        <v>1.2034441373655906</v>
       </c>
       <c r="AV3">
-        <v>0.12781882231921499</v>
+        <v>0.12781881832462247</v>
       </c>
       <c r="AW3">
-        <v>-0.11381429678612118</v>
+        <v>-0.11381430075774598</v>
       </c>
       <c r="AX3">
-        <v>1.7549910039355627</v>
+        <v>1.7549909997085742</v>
       </c>
       <c r="AY3">
-        <v>4.7401583235510403</v>
+        <v>4.7401583161920131</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_norm_licht_fas_elong_GM_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_licht_fas_elong_GM_common_max.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,62 +401,59 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>0.21185062919294695</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>1.4043030135138987</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>1.8663571968820416</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>3.4413152894541228</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>1.0774190430947357</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.25722548664482181</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0.77668636449122097</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>1.6441097573524193</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>2.2007954156391807</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.61058952592125704</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.53328106295861522</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>-1.4112122975156391</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>1.8920148444999729</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>1.3206324552933866</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>2.3651951596117162</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>-0.21637105111536956</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>-1.1348007166966199</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>3.8041650303475825</v>
+        <v>2.5838528663998646</v>
       </c>
       <c r="T2">
         <v>3.2156647812487926</v>
@@ -588,55 +477,55 @@
         <v>2.042058109454032</v>
       </c>
       <c r="AA2">
-        <v>2.2108984995815382</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>1.6882643715921071</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>-0.31663892864535936</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>3.314947132675381</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.9144276187663376</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.8469311282557712</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>1.6426946383841492</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>2.0384712675486027</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>2.5669364042634908</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>1.6192733436044504</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>1.8320981138434878</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>-1.0030361622413215</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>1.6710835076655888</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>2.185276034356348</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>3.6506875033392996</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.4124764899568008</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>-1.2061323573086691</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>3.8625173652951683</v>
@@ -664,59 +553,56 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>0.77301413382990891</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0.55827110559360438</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>2.9546052956682933</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>2.5246368439466189</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.81544744480551923</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>2.0934884503623201</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>-0.90928394694650783</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.53027874920548357</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>2.5263478569118689</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>4.6054644147377077</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>2.4263363833403524</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>-1.502686752129833E-2</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>1.2059266251779492</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>-2.7654820335070363</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>2.0399571912803331</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.79104783099499321</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>-0.38332645618870897</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>2.858293295750562</v>
@@ -743,55 +629,55 @@
         <v>2.4009924472636182</v>
       </c>
       <c r="AA3">
-        <v>2.2455485855717225</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>2.0106159335872795</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>3.5073919640573501</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>3.4654895370243537</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>2.2333892247572296</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.8208755046256802</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.71858425360057487</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.28228045647055111</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>7.4320073065602639</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>3.0735395654962745</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>2.1162410793235065</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>1.4064914648189477</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>1.2307636500082086</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>-2.3366969529623156</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>3.0939365672317964</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.21909992919030419</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>1.5423758006445469</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>5.1190300306437884</v>

--- a/data_output/prism_passive/all_passive_out_norm_licht_fas_elong_GM_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_licht_fas_elong_GM_common_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -517,17 +512,11 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>0.2118506284142774</v>
-      </c>
       <c r="C2">
-        <v>0.78365487596341532</v>
-      </c>
-      <c r="D2">
-        <v>1.8663572001721129</v>
+        <v>-1.1348007166966199</v>
       </c>
       <c r="E2">
-        <v>3.4413152914494787</v>
+        <v>-1.2061323573086691</v>
       </c>
       <c r="F2">
         <v>1.0774190467146361</v>
@@ -673,16 +662,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.77301413593260349</v>
+        <v>-1.5116290300329904</v>
       </c>
       <c r="C3">
-        <v>0.5582711098735651</v>
+        <v>-0.38332645618870897</v>
       </c>
       <c r="D3">
-        <v>2.9546053034481248</v>
+        <v>-2.1901451881043488</v>
       </c>
       <c r="E3">
-        <v>2.5246368476346186</v>
+        <v>1.8550160902001722</v>
       </c>
       <c r="F3">
         <v>0.81544744801798208</v>

--- a/data_output/prism_passive/all_passive_out_norm_licht_fas_elong_GM_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_licht_fas_elong_GM_common_max.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.2118506284142774</v>
-      </c>
-      <c r="C2">
-        <v>0.78365487596341532</v>
+        <v>1.6383776575388378</v>
       </c>
       <c r="D2">
-        <v>1.8663572001721129</v>
-      </c>
-      <c r="E2">
-        <v>3.4413152914494787</v>
+        <v>1.6710835076655888</v>
       </c>
       <c r="F2">
         <v>1.0774190467146361</v>
@@ -664,16 +653,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.77301413593260349</v>
+        <v>1.2059266251779492</v>
       </c>
       <c r="C3">
-        <v>0.5582711098735651</v>
+        <v>-1.5116290300329904</v>
       </c>
       <c r="D3">
-        <v>2.9546053034481248</v>
+        <v>1.2307636500082086</v>
       </c>
       <c r="E3">
-        <v>4.0713548404338491</v>
+        <v>-2.1901451881043488</v>
       </c>
       <c r="F3">
         <v>0.81544744801798208</v>

--- a/data_output/prism_passive/all_passive_out_norm_licht_fas_elong_GM_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_licht_fas_elong_GM_common_max.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,139 +513,145 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>0.21185062919294695</v>
+      </c>
+      <c r="C2">
+        <v>0.78365487444662274</v>
+      </c>
+      <c r="D2">
+        <v>1.8663571968820416</v>
+      </c>
+      <c r="E2">
+        <v>3.4413152894541228</v>
+      </c>
+      <c r="F2">
+        <v>1.0774190430947357</v>
+      </c>
+      <c r="G2">
+        <v>0.86750961997327103</v>
+      </c>
+      <c r="H2">
+        <v>0.77668636449122097</v>
+      </c>
+      <c r="I2">
+        <v>2.3049737173606357</v>
+      </c>
+      <c r="J2">
+        <v>2.2007954156391807</v>
+      </c>
+      <c r="K2">
+        <v>0.61058952592125704</v>
+      </c>
+      <c r="L2">
+        <v>0.40858070080639103</v>
+      </c>
+      <c r="M2">
+        <v>-2.349563235210312E-2</v>
+      </c>
+      <c r="N2">
         <v>1.6383776575388378</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>2.5798406151502569</v>
+      </c>
+      <c r="Q2">
+        <v>-0.21637105111536956</v>
+      </c>
+      <c r="R2">
+        <v>-1.1348007166966199</v>
+      </c>
+      <c r="T2">
+        <v>2.5740498268997065</v>
+      </c>
+      <c r="U2">
+        <v>-0.42477848424663528</v>
+      </c>
+      <c r="V2">
+        <v>1.1703512713405764</v>
+      </c>
+      <c r="W2">
+        <v>-1.8476881548917097</v>
+      </c>
+      <c r="X2">
+        <v>-0.16495026726592882</v>
+      </c>
+      <c r="Y2">
+        <v>3.1673973407183182</v>
+      </c>
+      <c r="Z2">
+        <v>2.042058109454032</v>
+      </c>
+      <c r="AA2">
+        <v>2.2108984995815382</v>
+      </c>
+      <c r="AB2">
+        <v>1.6882643715921071</v>
+      </c>
+      <c r="AC2">
+        <v>-0.31663892864535936</v>
+      </c>
+      <c r="AD2">
+        <v>3.314947132675381</v>
+      </c>
+      <c r="AE2">
+        <v>0.9144276187663376</v>
+      </c>
+      <c r="AF2">
+        <v>1.8469311282557712</v>
+      </c>
+      <c r="AG2">
+        <v>1.6426946383841492</v>
+      </c>
+      <c r="AH2">
+        <v>2.0384712675486027</v>
+      </c>
+      <c r="AI2">
+        <v>2.5669364042634908</v>
+      </c>
+      <c r="AJ2">
+        <v>1.6192733436044504</v>
+      </c>
+      <c r="AK2">
+        <v>1.8320981138434878</v>
+      </c>
+      <c r="AL2">
+        <v>-1.0030361622413215</v>
+      </c>
+      <c r="AM2">
         <v>1.6710835076655888</v>
       </c>
-      <c r="F2">
-        <v>1.0774190467146361</v>
-      </c>
-      <c r="G2">
-        <v>0.86750961960544903</v>
-      </c>
-      <c r="H2">
-        <v>0.77668636592453155</v>
-      </c>
-      <c r="I2">
-        <v>2.3049737200366121</v>
-      </c>
-      <c r="J2">
-        <v>2.2007954179223073</v>
-      </c>
-      <c r="K2">
-        <v>0.61058952862770388</v>
-      </c>
-      <c r="L2">
-        <v>0.40858070293616794</v>
-      </c>
-      <c r="M2">
-        <v>-2.3495633995570597E-2</v>
-      </c>
-      <c r="N2">
-        <v>1.6383776588973116</v>
-      </c>
-      <c r="P2">
-        <v>2.5798406146605126</v>
-      </c>
-      <c r="Q2">
-        <v>-0.21637104989149758</v>
-      </c>
-      <c r="R2">
-        <v>-1.13480071233964</v>
-      </c>
-      <c r="T2">
-        <v>2.5740498271901666</v>
-      </c>
-      <c r="U2">
-        <v>-0.42477847915491873</v>
-      </c>
-      <c r="V2">
-        <v>1.1703512772661582</v>
-      </c>
-      <c r="W2">
-        <v>-1.8476881531394242</v>
-      </c>
-      <c r="X2">
-        <v>-0.16495026668458687</v>
-      </c>
-      <c r="Y2">
-        <v>3.1673973446885073</v>
-      </c>
-      <c r="Z2">
-        <v>2.0420581144898224</v>
-      </c>
-      <c r="AA2">
-        <v>2.2108985031513866</v>
-      </c>
-      <c r="AB2">
-        <v>1.6882643778813065</v>
-      </c>
-      <c r="AC2">
-        <v>-0.3166389255950538</v>
-      </c>
-      <c r="AD2">
-        <v>3.314947139870196</v>
-      </c>
-      <c r="AE2">
-        <v>0.91442762218837559</v>
-      </c>
-      <c r="AF2">
-        <v>1.8469311314169174</v>
-      </c>
-      <c r="AG2">
-        <v>1.6426946415044916</v>
-      </c>
-      <c r="AH2">
-        <v>2.038471270611327</v>
-      </c>
-      <c r="AI2">
-        <v>2.5669364103664427</v>
-      </c>
-      <c r="AJ2">
-        <v>1.6192733455078741</v>
-      </c>
-      <c r="AK2">
-        <v>1.8320981165135517</v>
-      </c>
-      <c r="AL2">
-        <v>-1.0030361594835675</v>
-      </c>
-      <c r="AM2">
-        <v>1.6710835103207331</v>
-      </c>
       <c r="AO2">
-        <v>3.6506875056346582</v>
+        <v>3.6506875033392996</v>
       </c>
       <c r="AP2">
-        <v>2.8372428078684933</v>
+        <v>2.8372428038699944</v>
       </c>
       <c r="AQ2">
-        <v>-1.2061323547264278</v>
+        <v>-1.2061323573086691</v>
       </c>
       <c r="AR2">
-        <v>3.8625173649677644</v>
+        <v>3.8625173652951683</v>
       </c>
       <c r="AS2">
-        <v>2.7024957021023432</v>
+        <v>2.7024956976991543</v>
       </c>
       <c r="AT2">
-        <v>1.3765606482700357</v>
+        <v>1.3765606440212463</v>
       </c>
       <c r="AU2">
-        <v>0.93616772691719019</v>
+        <v>0.93616772258335657</v>
       </c>
       <c r="AV2">
-        <v>-0.12968686157238524</v>
+        <v>-0.12968686697229351</v>
       </c>
       <c r="AW2">
-        <v>0.62000386277096953</v>
+        <v>0.62000385836867378</v>
       </c>
       <c r="AX2">
-        <v>2.8191614849747064</v>
+        <v>2.819161479141151</v>
       </c>
       <c r="AY2">
-        <v>3.9291435793576341</v>
+        <v>3.9291435749347707</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -653,154 +659,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>0.77301413382990891</v>
+      </c>
+      <c r="C3">
+        <v>0.55827110559360438</v>
+      </c>
+      <c r="D3">
+        <v>2.9546052956682933</v>
+      </c>
+      <c r="E3">
+        <v>4.0713548361238301</v>
+      </c>
+      <c r="F3">
+        <v>0.81544744480551923</v>
+      </c>
+      <c r="G3">
+        <v>2.0934884503623201</v>
+      </c>
+      <c r="H3">
+        <v>-0.90928394694650783</v>
+      </c>
+      <c r="I3">
+        <v>0.53027874920548357</v>
+      </c>
+      <c r="J3">
+        <v>2.5263478569118689</v>
+      </c>
+      <c r="K3">
+        <v>3.7738868166118795</v>
+      </c>
+      <c r="L3">
+        <v>2.4263363833403524</v>
+      </c>
+      <c r="M3">
+        <v>-1.0105572333626192</v>
+      </c>
+      <c r="N3">
         <v>1.2059266251779492</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>-1.5116290300329904</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>2.0399571912803331</v>
+      </c>
+      <c r="Q3">
+        <v>0.79104783099499321</v>
+      </c>
+      <c r="R3">
+        <v>-0.38332645618870897</v>
+      </c>
+      <c r="S3">
+        <v>2.858293295750562</v>
+      </c>
+      <c r="T3">
+        <v>3.0499124451392157</v>
+      </c>
+      <c r="U3">
+        <v>1.7053201719574276</v>
+      </c>
+      <c r="V3">
+        <v>2.0243624765514072</v>
+      </c>
+      <c r="W3">
+        <v>-0.38262490213858169</v>
+      </c>
+      <c r="X3">
+        <v>-0.89323013530761208</v>
+      </c>
+      <c r="Y3">
+        <v>4.1429556096851785</v>
+      </c>
+      <c r="Z3">
+        <v>2.4009924472636182</v>
+      </c>
+      <c r="AA3">
+        <v>2.2455485855717225</v>
+      </c>
+      <c r="AB3">
+        <v>2.0106159335872795</v>
+      </c>
+      <c r="AC3">
+        <v>3.5073919640573501</v>
+      </c>
+      <c r="AD3">
+        <v>3.4654895370243537</v>
+      </c>
+      <c r="AE3">
+        <v>2.2333892247572296</v>
+      </c>
+      <c r="AF3">
+        <v>1.8208755046256802</v>
+      </c>
+      <c r="AG3">
+        <v>0.71858425360057487</v>
+      </c>
+      <c r="AH3">
+        <v>0.28228045647055111</v>
+      </c>
+      <c r="AI3">
+        <v>2.2879223968817599</v>
+      </c>
+      <c r="AJ3">
+        <v>3.0735395654962745</v>
+      </c>
+      <c r="AK3">
+        <v>2.1162410793235065</v>
+      </c>
+      <c r="AL3">
+        <v>1.4064914648189477</v>
+      </c>
+      <c r="AM3">
         <v>1.2307636500082086</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>-2.1901451881043488</v>
       </c>
-      <c r="F3">
-        <v>0.81544744801798208</v>
-      </c>
-      <c r="G3">
-        <v>2.0934884523493196</v>
-      </c>
-      <c r="H3">
-        <v>-0.90928394515695055</v>
-      </c>
-      <c r="I3">
-        <v>0.53027875091870802</v>
-      </c>
-      <c r="J3">
-        <v>2.526347858015392</v>
-      </c>
-      <c r="K3">
-        <v>3.7738868183665661</v>
-      </c>
-      <c r="L3">
-        <v>2.426336385291731</v>
-      </c>
-      <c r="M3">
-        <v>-1.0105135955609743</v>
-      </c>
-      <c r="N3">
-        <v>1.2059266280276946</v>
-      </c>
-      <c r="O3">
-        <v>-1.5116290201054876</v>
-      </c>
-      <c r="P3">
-        <v>2.0399571976619808</v>
-      </c>
-      <c r="Q3">
-        <v>0.79104783247486865</v>
-      </c>
-      <c r="R3">
-        <v>-0.38332645392850806</v>
-      </c>
-      <c r="S3">
-        <v>2.8582932970017385</v>
-      </c>
-      <c r="T3">
-        <v>3.0499124481692412</v>
-      </c>
-      <c r="U3">
-        <v>1.7053201750922256</v>
-      </c>
-      <c r="V3">
-        <v>2.0243624770738631</v>
-      </c>
-      <c r="W3">
-        <v>-0.3826248997788102</v>
-      </c>
-      <c r="X3">
-        <v>-0.89323013270063611</v>
-      </c>
-      <c r="Y3">
-        <v>4.1429556151730598</v>
-      </c>
-      <c r="Z3">
-        <v>2.4009924527049331</v>
-      </c>
-      <c r="AA3">
-        <v>2.2455485895430018</v>
-      </c>
-      <c r="AB3">
-        <v>2.0106159389974581</v>
-      </c>
-      <c r="AC3">
-        <v>3.5073919670705633</v>
-      </c>
-      <c r="AD3">
-        <v>3.4654895413797466</v>
-      </c>
-      <c r="AE3">
-        <v>2.2333892265657629</v>
-      </c>
-      <c r="AF3">
-        <v>1.8208755084806947</v>
-      </c>
-      <c r="AG3">
-        <v>0.71858425618594779</v>
-      </c>
-      <c r="AH3">
-        <v>0.28228045933610685</v>
-      </c>
-      <c r="AI3">
-        <v>2.2879224031398935</v>
-      </c>
-      <c r="AJ3">
-        <v>3.0735395673990729</v>
-      </c>
-      <c r="AK3">
-        <v>2.1162410840598733</v>
-      </c>
-      <c r="AL3">
-        <v>1.4064914700914704</v>
-      </c>
-      <c r="AM3">
-        <v>1.2307636554513322</v>
-      </c>
-      <c r="AN3">
-        <v>-2.1901451849927729</v>
-      </c>
       <c r="AO3">
-        <v>3.0939365767010027</v>
+        <v>3.0939365672317964</v>
       </c>
       <c r="AP3">
-        <v>0.21909993254209986</v>
+        <v>0.21909992919030419</v>
       </c>
       <c r="AQ3">
-        <v>1.855016091119718</v>
+        <v>1.8550160902001722</v>
       </c>
       <c r="AR3">
-        <v>5.1190300312014028</v>
+        <v>5.1190300306437884</v>
       </c>
       <c r="AS3">
-        <v>2.357766325954592</v>
+        <v>2.3577663230895856</v>
       </c>
       <c r="AT3">
-        <v>2.0111834040300636</v>
+        <v>2.0111833972302953</v>
       </c>
       <c r="AU3">
-        <v>1.2543383663364931</v>
+        <v>1.2543383699712407</v>
       </c>
       <c r="AV3">
-        <v>0.12781882231921499</v>
+        <v>0.12781881832462247</v>
       </c>
       <c r="AW3">
-        <v>-0.11381429678612118</v>
+        <v>-0.11381430075774598</v>
       </c>
       <c r="AX3">
-        <v>1.7549910039355627</v>
+        <v>1.7549909997085742</v>
       </c>
       <c r="AY3">
-        <v>4.7401583235510403</v>
+        <v>4.7401583161920131</v>
       </c>
     </row>
   </sheetData>
